--- a/Instance_Results.xlsx
+++ b/Instance_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devika Kabe\Documents\Model_brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BE462-14D5-4B79-9C6B-5200551E66DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFC501C-99B7-4647-A0A5-C5DD364FA4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3C435BA1-C057-46BC-ABC5-CC2E1F6FB315}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>f2 (Penalty) Weight</t>
   </si>
   <si>
-    <t>Demand from outsourcing</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
@@ -84,7 +81,10 @@
     <t>Probability Facility Fails</t>
   </si>
   <si>
-    <t>Avg. Scen Demand Met</t>
+    <t>Weighted avg. Scen Demand Met</t>
+  </si>
+  <si>
+    <t>Weighted avg. Demand from outsourcing</t>
   </si>
 </sst>
 </file>
@@ -94,8 +94,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,8 +181,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B626E4-15BB-4B41-AC1E-D06A0D5EF75A}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,13 +522,13 @@
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>2</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="6">
         <v>0.25</v>
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>6</v>
@@ -792,10 +792,10 @@
         <v>11</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>6</v>
@@ -980,10 +980,10 @@
         <v>11</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>6</v>
@@ -1165,10 +1165,10 @@
         <v>11</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>6</v>

--- a/Instance_Results.xlsx
+++ b/Instance_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devika Kabe\Documents\Model_brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFC501C-99B7-4647-A0A5-C5DD364FA4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C13CD-D80B-4BEE-B23E-133A1E1B304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3C435BA1-C057-46BC-ABC5-CC2E1F6FB315}"/>
   </bookViews>
@@ -505,19 +505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B626E4-15BB-4B41-AC1E-D06A0D5EF75A}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:M22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
